--- a/Datasets/vjcortesa_Risk_Perceptiondataset_251007.xlsx
+++ b/Datasets/vjcortesa_Risk_Perceptiondataset_251007.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,6 +500,16 @@
           <t>Q_Threatcode</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibility</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibilitycode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -628,6 +638,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties en burgers zijn even verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -761,6 +776,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -894,6 +919,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn volledig verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1027,6 +1057,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties en burgers zijn even verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1160,6 +1195,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1293,6 +1338,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1426,6 +1481,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1559,6 +1624,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn volledig verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1692,6 +1762,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1825,6 +1905,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1958,6 +2048,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2091,6 +2191,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2224,6 +2334,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2357,6 +2477,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2490,6 +2620,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2623,6 +2763,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2756,6 +2906,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2889,6 +3049,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3022,6 +3192,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3155,6 +3335,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties en burgers zijn even verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3288,6 +3473,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties en burgers zijn even verantwoordelijk voor bescherming tegen overstromingen.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -3421,6 +3611,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -3552,6 +3752,16 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Overheidsinstanties zijn verantwoordelijk en burgers deels verantwoordelijk voor bescherming tegen overstromingen</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
